--- a/utils/test1.xlsx
+++ b/utils/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12615"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,36 +16,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>【iOS】长按出现分时详细后，点击上方切换合约，分时详细不消失</t>
-  </si>
-  <si>
-    <t>【Android】弹出价格预警输入框时，上方状态栏变为黑色</t>
-  </si>
-  <si>
-    <t>【Android】app在后台一段时间后，打开app会崩溃</t>
-  </si>
-  <si>
-    <t>【Android】涨跌涨幅，希望带上配色</t>
-  </si>
-  <si>
-    <t>【iOS】闭市期间，iOS逐笔浮盈计算有误</t>
-  </si>
-  <si>
-    <t>【Android】概率出现，美原油主连，显示分时图有误</t>
-  </si>
-  <si>
-    <t>【Android】安卓个推信息，必须打开app时，才能在任务栏显示</t>
-  </si>
-  <si>
-    <t>【iOS】恒生后台，螺纹1910对手价下单，报错“价格超于涨跌停价”</t>
-  </si>
-  <si>
-    <t>【API】后台不传均价的合约，需要app自行计算</t>
-  </si>
-  <si>
-    <t>【Android】未有过登录历史情况下，国内期货不默认勾选</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>【Android】概率出现，账户信息无法刷新出来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】点击K线，切换指标，指标线不更改 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】大手数用户登录，非常卡顿，切换至别的页面后回来，恢复正常 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】非持仓页签，不需要加分隔线 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】当前版本，三键下单会报“无网络或交易断开”的toast，实际网络未断开（概率出现） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】多条同合约持仓，有多有空，对多仓反手后，空仓的可用增加，但是手数没变 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】对合约反手后，该合约的反向仓位未自动刷新出来 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】点击合约出现下拉后，如果该合约刷新，则消失选中效果 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】首条持仓分隔线未对齐（偶现） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android*】行情处标题、入口文字相关优化 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS*】行情处标题、入口文字相关优化 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】画线下单默认手数不走设置 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android*】云条件单默认手数不走设置 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS*】云条件单默认手数不走设置 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】持仓均价线，10001手空仓未显示 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】持仓均价线，多仓显示不对 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】持仓列表的排序点击后，不刷新 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】持仓线未自动对坐标轴的变化，而改变位置 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】概率出现，勾选“已阅读”后，圈格消失 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS*】持仓页面，在手数与价格之间切换时，需要点击两次 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】设置涨跌幅为昨收/昨结，不该影响下方盘口的昨结字段（应该一直是昨结） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】设置涨跌幅计算依据昨收之后，上盘口涨跌幅还是依据昨结计算 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】TC咨询展开关闭，附图隐藏效果被重置 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】倒计时重置逻辑有误 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】1分钟K线，左右滑动，会重置倒计时 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】横屏下，没有关闭三点属性 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】持仓UI，分隔线应该用细线，与本来的框格线风格一致 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【iOS】横屏后，持仓线的持仓说明框，没有首行对齐 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android*】持仓页面，在手数与价格之间切换时，需要点击两次 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】价格预警的输入框 + - 变成了对手价的 + - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】未登录状态下的侧边栏，风格统一优化 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】切换到英文状态下，app启动页面，仍旧是中文 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】当前用户反馈，点进去后，跳转到了极星官网 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】持仓线没有对无效数据过滤 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】分时图长按触发十字光标后，单方向滑动（左/右）后松手，App误认为是切换合约手势 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android】画线下单页面，使用了系统返回键后，整个行情页面都退出 </t>
   </si>
 </sst>
 </file>
@@ -54,9 +132,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,9 +152,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,59 +161,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,6 +184,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -167,7 +229,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,8 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,9 +266,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,43 +298,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,139 +454,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,21 +489,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,9 +509,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,7 +552,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,33 +576,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -531,140 +609,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1013,15 +1092,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="1" max="1" width="102.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1074,7 +1153,140 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="【Android】概率出现，账户信息无法刷新出来" tooltip="https://epolestar.zentaopm.com/bug-view-4210.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/utils/test1.xlsx
+++ b/utils/test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="28800"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12690" windowWidth="24345"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -34,15 +34,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -56,16 +71,39 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
@@ -73,35 +111,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -109,22 +120,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -139,7 +134,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -154,8 +156,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -167,21 +175,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -192,6 +185,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -204,175 +269,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +376,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -396,16 +400,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,6 +434,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,202 +462,167 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="11" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="24" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="23" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="18" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="18" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="17" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="10" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="10" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="17" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,238 +977,137 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="101.25"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】没有配置任何指标时，查看TC咨询，页面显示错误 </t>
+          <t xml:space="preserve">【Android】历史行情自动填充满屏幕 </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【Android】每次断线重连，都会将本次交易日所有交易通知提醒都提醒一遍 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+          <t xml:space="preserve">【Android】分时图 日、月、年等线 需要显示年份 </t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="1">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】涨跌幅设置为昨收后，涨跌幅标题小字显示不对 </t>
+          <t xml:space="preserve">【iOS】断网重连，K线不恢复 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】行情面板的下拉需要增加透明度，当前有遮挡效果 </t>
+          <t xml:space="preserve">【iOS】止损开仓中，框中文字过小 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】从合约列表出直接进入的点价下单，买量、卖量不自动刷新 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+          <t xml:space="preserve">【iOS】iOS登录多账号，闪退 </t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="1">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】无指标时，上方一栏不需要显示，节省空间看行情图 </t>
+          <t xml:space="preserve">【iOS*】金仕达后台，资金详情，Android与iOS 不统一 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】点价下单中的浮盈字段，应该区分投、保，且动态刷新 </t>
+          <t xml:space="preserve">【Android*】金仕达后台，资金详情，Android与iOS 不统一 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS*】指标配置影响历史分时图布局 </t>
+          <t xml:space="preserve">【Android】行情列表的成交/持仓 不该随涨跌幅变色 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【Android*】指标配置影响历史分时图布局 </t>
+          <t xml:space="preserve">【iOS*】3M合约转换为具体合约，成交价、委托价应该与后台返回结果一致 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【Android】指标配置里，“形态指标”修改为“趋势指标” </t>
+          <t xml:space="preserve">【Android*】3M合约转换为具体合约，成交价、委托价应该与后台返回结果一致 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】网格线与实际图中值显示，不一致 </t>
+          <t xml:space="preserve">【iOS】咨询页面，输入搜索内容使得下方显示暂无内容，点击暂无内容，app崩溃 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】DMI指标，ADXR显示在了第二行、图中坐标轴并非最高点 </t>
+          <t xml:space="preserve">【iOS】首次安装，第一次打开一定会报错行情连接失败，但是手机是有网的 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】未登录账户时，断开网络再重新连接，概率出现侧边栏一直显示“交易连接已断开” </t>
+          <t xml:space="preserve">【iOS】右侧边栏无法拖动， 关于 看不见 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】横屏下合约滚动条过短 </t>
+          <t xml:space="preserve">【Android】改单按钮显示异常 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】点击点价下单，app崩溃 </t>
+          <t xml:space="preserve">【iOS】止损开仓添加止损止盈单时，价格的加减不该固定为0.01变动价 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】红枣合约，止损止盈界面的浮盈计算有误 </t>
+          <t xml:space="preserve">【iOS】止损开仓添加止损止盈单时，希望能自动将当前最新价填入止损价中 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【Android】套利合约涨跌幅计算有误 </t>
+          <t xml:space="preserve">【Android】止损开仓添加止损止盈单时，希望能自动将当前最新价填入止损价中 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">【iOS】二次认证应该显示“信任该设备” </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【iOS】日线的多日分时图，手势逻辑、停顿时间优化 </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【Android】分时图在横屏下切换了合约，回到竖屏，会将右边五档行情又自动打开 </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【Android】点价下单页面的，连续开仓按钮，UI优化 </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【iOS】切换显示多日分时图后，行情点显示位置错乱 </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【iOS】自对冲输入框的数量，黑色主题下配色需要更改，看不清 </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【Android】账号首次登录，期权合约，逐笔浮盈都是0.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【iOS】无任何指标时，进入TC资讯页面，切换高频、当日、短期等等页签，ANR。且手机发烫严重 </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【iOS】点价下单中的浮盈字段，不稳定，会刷新成“权益”的数据 </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【iOS】BOLL，设置P为2.1，数据错乱 </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【Android】BOLL，设置值为0时，会自动恢复成1.0，希望恢复成默认值2.0 </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【Android】不区分投机套保的合约（比如二债1912）交易设置成套保后，点价下单浮盈字段不显示逐笔浮盈 </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【Android】切换主题时，有明显卡顿，尤其是白色切换为黑色时 </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【Android】每次断线重连，未读的消息都要再次显示 </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【Android】自选合约添加超过一页，并且自定义排序后，合约会显示重复 </t>
+          <t xml:space="preserve">【iOS】金仕达后台无法撤单，改单操作成功。相同时间安卓可以撤单 </t>
         </is>
       </c>
     </row>
